--- a/results_analysis/spark_vertebralColum_01_hold2.xlsx
+++ b/results_analysis/spark_vertebralColum_01_hold2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586989A-6DC8-4732-9D53-E32A0E1FF38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD441329-6680-4DAC-8258-CC0E428EAB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,28 +1074,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.710326086956522</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.68858695652173896</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.64239130434782599</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.73315217391304299</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.73097826086956497</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.71086956521739098</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.66521739130434798</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.71521739130434803</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.70760869565217399</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.73804347826087002</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.72554347826086996</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.75163043478260905</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.772826086956522</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.72934782608695703</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.70815217391304397</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.73532608695652202</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1105,14 +1137,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.70597826086956506</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.68206521739130399</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.69565217391304401</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.64619565217391295</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.69510869565217404</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.66902173913043494</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.72119565217391302</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.67065217391304299</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1120,14 +1168,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.70760869565217399</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.74021739130434805</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.75054347826086998</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.69184782608695705</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.61032608695652202</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.70543478260869596</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.70326086956521705</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1139,28 +1203,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.68641304347826104</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.73097826086956497</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.67119565217391297</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.70706521739130401</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.69945652173912998</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.33695652173912999</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.67445652173912995</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.72771739130434798</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.735869565217391</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.74673913043478302</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.73695652173913095</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.78641304347826102</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.47826086956521702</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.72119565217391302</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.72554347826086996</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1170,14 +1266,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.70652173913043503</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.72391304347826102</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.67826086956521803</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.67119565217391297</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.70978260869565202</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.55217391304347796</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.70271739130434796</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.69456521739130395</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1185,14 +1297,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.74021739130434805</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.74619565217391304</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.75163043478260905</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.76739130434782599</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.55923913043478302</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.74184782608695599</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1204,28 +1332,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.69782608695652204</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.69510869565217404</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.67173913043478295</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.69130434782608696</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.70760869565217399</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.64891304347826095</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.73260869565217401</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.74945652173913102</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.78152173913043499</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.75760869565217404</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.70923913043478304</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.74836956521739095</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.77608695652173898</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.70054347826087005</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.70543478260869596</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1235,14 +1395,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.59728260869565197</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.367934782608696</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.54619565217391297</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.59891304347826102</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.64293478260869596</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.44347826086956499</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.43586956521739101</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1250,14 +1426,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.58858695652173898</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.48695652173913001</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.470108695652174</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.36304347826087002</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.610869565217391</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.58423913043478304</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.37989130434782598</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.39239130434782599</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1269,28 +1461,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.77065217391304397</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.73913043478260898</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.65434782608695596</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.67826086956521703</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.73152173913043494</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.70054347826087005</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.676086956521739</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.71086956521739098</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.76630434782608703</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.752717391304348</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.69782608695652204</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.74565217391304395</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.78858695652173905</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.73423913043478295</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.67065217391304299</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.73097826086956497</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1300,14 +1524,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.68423913043478302</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.65760869565217395</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.676086956521739</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.67771739130434805</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.67228260869565204</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.67826086956521703</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.73804347826087002</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.67771739130434805</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1315,14 +1555,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.73423913043478295</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.71793478260869603</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.68967391304347803</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.72826086956521696</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.67065217391304399</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.62608695652173896</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.73423913043478295</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.71902173913043499</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -1668,7 +1924,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,14 +2004,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.66874579111810895</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.66238112225573198</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.58254111420865196</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.70325344337548001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.659489706692579</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.72027135889352101</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.65657394933376101</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.72781458304425095</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1763,14 +2035,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.64745423566467797</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.68799368575972797</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.70050139226979402</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.66547339960501495</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.729102989634968</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.65549233096686799</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.60980288838880903</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.73735836099982399</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1780,14 +2068,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.67373268518720797</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.61286248410736099</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.64063565873010797</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.63414058760008696</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.60395623597437398</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.66646873982491805</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.62417548258632305</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.60172011520034296</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1795,14 +2099,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.72587799846679901</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.700028762618777</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.70211913099203205</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.68373092344610897</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.63085148510232703</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.71550098586200905</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.64430900826771498</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.67931737339883602</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1814,14 +2134,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.70415807427810395</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.60780716831816595</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.62431287981594297</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.61345710595198</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.68734144698559196</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.60051637477261499</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.68761595049794499</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1829,14 +2165,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.72382562747141999</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.70035751602117502</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.70322051183798095</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.73761317741694998</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.71361352351432805</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.68432899914545398</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.68394650018956205</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1846,14 +2198,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.65810108583712301</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.71756865226382305</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.58189824060639195</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.57815928293164698</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.70913308024819199</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.58361376468514004</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.66274649636628802</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.64391100736657803</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1861,14 +2229,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.71981004531229298</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.73497787716331597</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.74216066256987701</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.73282585378085197</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.68432899914545398</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.58266728683187896</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.737949664187452</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.68751060236003503</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1880,14 +2264,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.67629080144880704</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.58859716692031006</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.68571119930019497</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.64848873928277195</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.64566489623885903</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.64495786420733903</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.55886497339696795</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.66262922012637604</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1895,14 +2295,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.71167847197946099</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.74632818577674698</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.64168645610276298</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.690783634884793</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.70334515197667802</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.74464560569346905</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.69833363777734303</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.70039990706864397</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1912,14 +2328,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.61068274634116804</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.62939950030895997</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.66037343115194602</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.67160348604213604</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.59083360870967105</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.46679705626547002</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.52550970569320099</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.59762755790845001</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1927,14 +2359,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.64442923340245095</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.52768589820960499</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.28430137675649497</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.41800195111593402</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.61606298405249305</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.61812534071226799</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.555647403743735</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.59342444389257998</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1946,14 +2394,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.74732128637081197</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.65779828676627405</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.64834102188940401</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.62816518610276195</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.65478013752178099</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.63898702974145805</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.59550114718132796</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.63180233520933404</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1961,14 +2425,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.683788398089203</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.73502107693204799</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.58401556976965396</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.69133346097422199</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.73351313950624297</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.63180233520933404</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.59517042484476701</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.68067881530529695</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1978,14 +2458,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.63957417805397698</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.63727539261626298</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.59502064417340095</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.66371124581284902</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.64817768927513797</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.572341066808148</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.65631186998936897</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.64025763488986798</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1993,14 +2489,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.68355533681758396</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.62399031664147797</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.61026912432831504</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.67930538058908096</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.62893750093275302</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.59790136544271599</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.67115491015217599</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.68350318262947196</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2015,7 +2527,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,14 +2607,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.72074650925728401</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.69648923618068104</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.65735954866389701</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.73404968371664403</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.666233354998917</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.75667486847747001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.72515808491418199</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.78470418470418501</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2110,14 +2638,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.66260589167623096</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.75064742407866603</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.75974792169482397</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.71628049850798703</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.74344944210415098</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.70458690722665895</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.70274279185076904</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.79752943563534995</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2127,14 +2671,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.75158133748306699</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.69790861334126297</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.70809385924357804</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.69585833974453004</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.68531463660142999</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.70387226670412495</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.68051379722726701</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.66004877508036797</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2142,14 +2702,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.76709001103553198</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.74081982519783895</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.75322162822162797</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.72856439825390296</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.69341640028918605</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.75415721844293304</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.73226381461675605</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.72878199487059403</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2161,14 +2737,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.73086847936184496</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.70232488711955998</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.691580649172988</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.688561730666994</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.70374077700167603</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.71613056541892595</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.71596145789694199</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -2176,14 +2768,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.74741897022543802</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.762549668185317</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.69925385444782595</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.77485662065923</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.76221614642667301</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.73686868686868701</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.73955209158784097</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2193,14 +2801,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.71429024583663803</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.74873843725574996</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.65074871123475997</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.64479353085437796</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.66978234292081096</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.55598219639315505</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.69588924352961601</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.67860636917240702</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2208,14 +2832,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.71089743589743604</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.77067351305092002</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.78347739173798003</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.76410184247063695</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.73686868686868701</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.68330107501807202</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.74195589985063704</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.73871014964984105</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2227,14 +2867,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.744919880443356</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.70011102492737798</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.73056653491436097</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.71365787694388105</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.69078483245149902</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.70634920634920595</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.60070692547328097</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.71488848239786895</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -2242,14 +2898,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.74193696802392495</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.77635380282234501</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.71754283108592298</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.72494300045599602</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.75400827214425103</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.756452726017943</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.73086098460203897</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.74475205254515597</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2259,14 +2931,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.66990252206052103</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.71528988954072203</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.75813492063492105</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.72356650246305398</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.67499387561121404</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.54912891986062695</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.51897459142303104</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.68317806822395299</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2274,14 +2962,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.63445734927968001</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.65397512540369696</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.43723344556677901</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.55601325349645303</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.700837742504409</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.72871031078898996</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.60410713469537003</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.66876738772497601</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2293,14 +2997,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.76694468809183303</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.71521439337531301</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.707821251646094</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.69773771650759997</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.70090258325552501</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.73207350901525703</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.66435565286139997</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.69855699855699904</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2308,14 +3028,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.72643091364654699</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.76459627329192603</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.60474195824891297</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.73069079321725305</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.78141054170031998</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.68290043290043301</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.67131254061078605</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.71577255764792203</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2325,14 +3061,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.71122669132377903</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.72158912284906895</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.615628815628816</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.688941275079889</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.70181851245681004</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.63978100752294298</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.69138182254214098</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.70222577635612404</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2340,14 +3092,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.75577928806591299</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.66080430962463599</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.67418925219145798</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.73362229102167198</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.69948489029954297</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.67535780396406198</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.73407947249696304</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.72075630843647298</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2362,7 +3130,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,28 +3208,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="13">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.69836956521739102</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.66847826086956497</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.73641304347826098</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.72282608695652195</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.75815217391304401</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.74184782608695699</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.74184782608695699</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.75543478260869601</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.78532608695652195</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.73641304347826098</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.71195652173913004</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.75815217391304401</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2471,14 +3271,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="13">
+        <v>0.71467391304347805</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.690217391304348</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.70923913043478304</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.64402173913043503</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.690217391304348</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.65489130434782605</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.66576086956521696</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2486,14 +3302,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="13">
+        <v>0.71467391304347805</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.752717391304348</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.69565217391304401</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2505,28 +3337,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.690217391304348</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.73641304347826098</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.70380434782608703</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.690217391304348</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.315217391304348</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.69293478260869601</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.73913043478260898</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="13">
+        <v>0.73641304347826098</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.76358695652173902</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.77445652173913004</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.79891304347826098</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.58695652173913104</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.747282608695652</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.73097826086956497</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2536,14 +3400,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.70923913043478304</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.74456521739130399</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.70380434782608703</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.690217391304348</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.55434782608695699</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.70380434782608703</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2551,14 +3431,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="13">
+        <v>0.73097826086956497</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.73641304347826098</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.73913043478260898</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.76902173913043503</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.56793478260869601</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.74184782608695699</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.76630434782608703</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2570,28 +3466,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="D13" s="13">
+        <v>0.70652173913043503</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.69565217391304401</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.69293478260869601</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.71195652173913104</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.73913043478260898</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.66576086956521696</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.65760869565217395</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.74184782608695699</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.76358695652173902</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.77989130434782605</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.72282608695652195</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.747282608695652</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.78532608695652195</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.70923913043478304</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2601,14 +3529,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.59239130434782605</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.41304347826087001</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.622282608695652</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.67663043478260898</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.64945652173913004</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.470108695652174</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.59782608695652195</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2616,14 +3560,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="13">
+        <v>0.57880434782608703</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.55706521739130399</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.377717391304348</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.64945652173913004</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.58695652173913004</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.36684782608695699</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.41032608695652201</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2635,28 +3595,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="13">
+        <v>0.76630434782608703</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.73913043478260898</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.64673913043478304</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.70380434782608703</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.73913043478260898</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.72010869565217395</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.73097826086956497</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="13">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.752717391304348</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.72554347826086996</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.752717391304348</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.79347826086956497</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.75815217391304401</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.65489130434782605</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.77445652173913004</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2666,14 +3658,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="13">
+        <v>0.67391304347826098</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.64673913043478304</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.67934782608695699</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.684782608695652</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.66847826086956497</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.71195652173913004</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.684782608695652</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2681,14 +3689,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="D20" s="13">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.68206521739130399</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.747282608695652</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.67391304347826098</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.67119565217391297</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.72554347826086996</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -2876,7 +3900,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,28 +3978,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.815217391304348</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.83695652173913104</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.83695652173913104</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.84239130434782605</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.815217391304348</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.83695652173913104</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.79891304347826098</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.85326086956521696</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2985,14 +4041,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.79891304347826098</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.76630434782608703</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.75543478260869601</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3000,14 +4072,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.83695652173913104</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.83152173913043503</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.79347826086956497</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.80434782608695699</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3019,28 +4107,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.58695652173913104</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.80434782608695699</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.84239130434782605</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.83152173913043503</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.83695652173913104</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.58695652173913104</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.809782608695652</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3050,14 +4170,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.75543478260869601</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.84239130434782605</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.75543478260869601</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.80434782608695699</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3065,14 +4201,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.84239130434782605</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.85869565217391297</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.76630434782608703</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.85326086956521696</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.80434782608695699</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3084,28 +4236,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.79347826086956497</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.809782608695652</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.83695652173913104</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.85326086956521696</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.82065217391304401</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.85326086956521696</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.83152173913043503</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.82608695652173902</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3115,14 +4299,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.76630434782608703</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.77173913043478304</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.815217391304348</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.76630434782608703</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.64130434782608703</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.74456521739130399</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.75543478260869601</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3130,14 +4330,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.63586956521739102</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.66847826086956497</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.72282608695652195</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.75543478260869601</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3149,28 +4365,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.85869565217391297</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.79347826086956497</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.79891304347826098</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.78804347826086996</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.815217391304348</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.815217391304348</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3180,14 +4428,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.79347826086956497</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.78804347826086996</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.74456521739130399</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.79347826086956497</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.79347826086956497</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3195,14 +4459,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.77717391304347805</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.76086956521739102</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.809782608695652</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.79891304347826098</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.73369565217391297</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.80434782608695699</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.82065217391304401</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -3548,7 +4828,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,28 +4906,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="29">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29">
+        <v>21</v>
+      </c>
+      <c r="F5" s="29">
+        <v>18</v>
+      </c>
+      <c r="G5" s="29">
+        <v>38</v>
+      </c>
+      <c r="H5" s="29">
+        <v>9</v>
+      </c>
+      <c r="I5" s="29">
+        <v>100</v>
+      </c>
+      <c r="J5" s="29">
+        <v>7</v>
+      </c>
+      <c r="K5" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="29">
+        <v>6</v>
+      </c>
+      <c r="E6" s="29">
+        <v>44</v>
+      </c>
+      <c r="F6" s="29">
+        <v>19</v>
+      </c>
+      <c r="G6" s="29">
+        <v>71</v>
+      </c>
+      <c r="H6" s="29">
+        <v>23</v>
+      </c>
+      <c r="I6" s="29">
+        <v>65</v>
+      </c>
+      <c r="J6" s="29">
+        <v>7</v>
+      </c>
+      <c r="K6" s="29">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3657,14 +4969,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+      <c r="E7" s="29">
+        <v>21</v>
+      </c>
+      <c r="F7" s="29">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8</v>
+      </c>
+      <c r="H7" s="29">
+        <v>5</v>
+      </c>
+      <c r="I7" s="29">
+        <v>100</v>
+      </c>
+      <c r="J7" s="29">
+        <v>15</v>
+      </c>
+      <c r="K7" s="29">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3672,14 +5000,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="29">
+        <v>16</v>
+      </c>
+      <c r="E8" s="29">
+        <v>26</v>
+      </c>
+      <c r="F8" s="29">
+        <v>17</v>
+      </c>
+      <c r="G8" s="29">
+        <v>42</v>
+      </c>
+      <c r="H8" s="29">
+        <v>31</v>
+      </c>
+      <c r="I8" s="29">
+        <v>100</v>
+      </c>
+      <c r="J8" s="29">
+        <v>13</v>
+      </c>
+      <c r="K8" s="29">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3691,28 +5035,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="29">
+        <v>17</v>
+      </c>
+      <c r="E9" s="29">
+        <v>21</v>
+      </c>
+      <c r="F9" s="29">
+        <v>28</v>
+      </c>
+      <c r="G9" s="29">
+        <v>13</v>
+      </c>
+      <c r="H9" s="29">
+        <v>21</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>6</v>
+      </c>
+      <c r="K9" s="29">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="29">
+        <v>23</v>
+      </c>
+      <c r="E10" s="29">
+        <v>21</v>
+      </c>
+      <c r="F10" s="29">
+        <v>46</v>
+      </c>
+      <c r="G10" s="29">
+        <v>18</v>
+      </c>
+      <c r="H10" s="29">
+        <v>54</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
+        <v>33</v>
+      </c>
+      <c r="K10" s="29">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3722,14 +5098,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="29">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29">
+        <v>5</v>
+      </c>
+      <c r="F11" s="29">
+        <v>35</v>
+      </c>
+      <c r="G11" s="29">
+        <v>4</v>
+      </c>
+      <c r="H11" s="29">
+        <v>5</v>
+      </c>
+      <c r="I11" s="29">
+        <v>3</v>
+      </c>
+      <c r="J11" s="29">
+        <v>9</v>
+      </c>
+      <c r="K11" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3737,14 +5129,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="29">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29">
+        <v>28</v>
+      </c>
+      <c r="F12" s="29">
+        <v>7</v>
+      </c>
+      <c r="G12" s="29">
+        <v>18</v>
+      </c>
+      <c r="H12" s="29">
+        <v>37</v>
+      </c>
+      <c r="I12" s="29">
+        <v>3</v>
+      </c>
+      <c r="J12" s="29">
+        <v>14</v>
+      </c>
+      <c r="K12" s="29">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3756,28 +5164,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="29">
+        <v>30</v>
+      </c>
+      <c r="E13" s="29">
+        <v>14</v>
+      </c>
+      <c r="F13" s="29">
+        <v>34</v>
+      </c>
+      <c r="G13" s="29">
+        <v>27</v>
+      </c>
+      <c r="H13" s="29">
+        <v>18</v>
+      </c>
+      <c r="I13" s="29">
+        <v>20</v>
+      </c>
+      <c r="J13" s="29">
+        <v>6</v>
+      </c>
+      <c r="K13" s="29">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="29">
+        <v>14</v>
+      </c>
+      <c r="E14" s="29">
+        <v>21</v>
+      </c>
+      <c r="F14" s="29">
+        <v>15</v>
+      </c>
+      <c r="G14" s="29">
+        <v>45</v>
+      </c>
+      <c r="H14" s="29">
+        <v>21</v>
+      </c>
+      <c r="I14" s="29">
+        <v>19</v>
+      </c>
+      <c r="J14" s="29">
+        <v>21</v>
+      </c>
+      <c r="K14" s="29">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3787,14 +5227,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="29">
+        <v>3</v>
+      </c>
+      <c r="E15" s="29">
+        <v>3</v>
+      </c>
+      <c r="F15" s="29">
+        <v>3</v>
+      </c>
+      <c r="G15" s="29">
+        <v>3</v>
+      </c>
+      <c r="H15" s="29">
+        <v>3</v>
+      </c>
+      <c r="I15" s="29">
+        <v>3</v>
+      </c>
+      <c r="J15" s="29">
+        <v>3</v>
+      </c>
+      <c r="K15" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3802,14 +5258,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+      <c r="E16" s="29">
+        <v>3</v>
+      </c>
+      <c r="F16" s="29">
+        <v>4</v>
+      </c>
+      <c r="G16" s="29">
+        <v>3</v>
+      </c>
+      <c r="H16" s="29">
+        <v>3</v>
+      </c>
+      <c r="I16" s="29">
+        <v>3</v>
+      </c>
+      <c r="J16" s="29">
+        <v>3</v>
+      </c>
+      <c r="K16" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3821,28 +5293,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="29">
+        <v>100</v>
+      </c>
+      <c r="E17" s="29">
+        <v>100</v>
+      </c>
+      <c r="F17" s="29">
+        <v>12</v>
+      </c>
+      <c r="G17" s="29">
+        <v>68</v>
+      </c>
+      <c r="H17" s="29">
+        <v>100</v>
+      </c>
+      <c r="I17" s="29">
+        <v>8</v>
+      </c>
+      <c r="J17" s="29">
+        <v>7</v>
+      </c>
+      <c r="K17" s="29">
+        <v>80</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="29">
+        <v>100</v>
+      </c>
+      <c r="E18" s="29">
+        <v>93</v>
+      </c>
+      <c r="F18" s="29">
+        <v>26</v>
+      </c>
+      <c r="G18" s="29">
+        <v>49</v>
+      </c>
+      <c r="H18" s="29">
+        <v>68</v>
+      </c>
+      <c r="I18" s="29">
+        <v>42</v>
+      </c>
+      <c r="J18" s="29">
+        <v>13</v>
+      </c>
+      <c r="K18" s="29">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3852,14 +5356,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="29">
+        <v>18</v>
+      </c>
+      <c r="E19" s="29">
+        <v>4</v>
+      </c>
+      <c r="F19" s="29">
+        <v>4</v>
+      </c>
+      <c r="G19" s="29">
+        <v>14</v>
+      </c>
+      <c r="H19" s="29">
+        <v>4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>20</v>
+      </c>
+      <c r="J19" s="29">
+        <v>9</v>
+      </c>
+      <c r="K19" s="29">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3867,14 +5387,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="29">
+        <v>17</v>
+      </c>
+      <c r="E20" s="29">
+        <v>24</v>
+      </c>
+      <c r="F20" s="29">
+        <v>21</v>
+      </c>
+      <c r="G20" s="29">
+        <v>38</v>
+      </c>
+      <c r="H20" s="29">
+        <v>4</v>
+      </c>
+      <c r="I20" s="29">
+        <v>12</v>
+      </c>
+      <c r="J20" s="29">
+        <v>7</v>
+      </c>
+      <c r="K20" s="29">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4062,7 +5598,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4140,28 +5676,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E5" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="F5" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="G5" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="H5" s="19">
+        <v>18.7</v>
+      </c>
+      <c r="I5" s="19">
+        <v>59.2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>8.4</v>
+      </c>
+      <c r="K5" s="19">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19">
+        <v>22.3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>16.2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>32.1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>17</v>
+      </c>
+      <c r="I6" s="19">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="K6" s="19">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4171,14 +5739,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>17.3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>12</v>
+      </c>
+      <c r="G7" s="19">
+        <v>13.7</v>
+      </c>
+      <c r="H7" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>37.6</v>
+      </c>
+      <c r="J7" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="K7" s="19">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4186,14 +5770,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="E8" s="19">
+        <v>15.6</v>
+      </c>
+      <c r="F8" s="19">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G8" s="19">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H8" s="19">
+        <v>16.2</v>
+      </c>
+      <c r="I8" s="19">
+        <v>61.9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="K8" s="19">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4205,28 +5805,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>15</v>
+      </c>
+      <c r="E9" s="19">
+        <v>22.7</v>
+      </c>
+      <c r="F9" s="19">
+        <v>18.2</v>
+      </c>
+      <c r="G9" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="H9" s="19">
+        <v>15.6</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="K9" s="19">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>18</v>
+      </c>
+      <c r="E10" s="19">
+        <v>22.9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>30.6</v>
+      </c>
+      <c r="G10" s="19">
+        <v>23.9</v>
+      </c>
+      <c r="H10" s="19">
+        <v>24.7</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>21.7</v>
+      </c>
+      <c r="K10" s="19">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4236,14 +5868,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>11.2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="F11" s="19">
+        <v>14.4</v>
+      </c>
+      <c r="G11" s="19">
+        <v>11</v>
+      </c>
+      <c r="H11" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="I11" s="19">
+        <v>3</v>
+      </c>
+      <c r="J11" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4251,14 +5899,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>12.4</v>
+      </c>
+      <c r="E12" s="19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F12" s="19">
+        <v>14.7</v>
+      </c>
+      <c r="G12" s="19">
+        <v>24</v>
+      </c>
+      <c r="H12" s="19">
+        <v>27.4</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3</v>
+      </c>
+      <c r="J12" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="K12" s="19">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4270,28 +5934,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>19.7</v>
+      </c>
+      <c r="E13" s="19">
+        <v>16.3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>15.4</v>
+      </c>
+      <c r="G13" s="19">
+        <v>14.5</v>
+      </c>
+      <c r="H13" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="I13" s="19">
+        <v>17</v>
+      </c>
+      <c r="J13" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="K13" s="19">
+        <v>20.399999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19">
+        <v>23.8</v>
+      </c>
+      <c r="F14" s="19">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G14" s="19">
+        <v>21.3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>23.8</v>
+      </c>
+      <c r="I14" s="19">
+        <v>22.5</v>
+      </c>
+      <c r="J14" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K14" s="19">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4301,14 +5997,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3</v>
+      </c>
+      <c r="G15" s="19">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19">
+        <v>3</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3</v>
+      </c>
+      <c r="J15" s="19">
+        <v>3</v>
+      </c>
+      <c r="K15" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4316,14 +6028,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>6</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>3</v>
+      </c>
+      <c r="I16" s="19">
+        <v>3</v>
+      </c>
+      <c r="J16" s="19">
+        <v>3</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4335,28 +6063,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>87.4</v>
+      </c>
+      <c r="E17" s="19">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
+        <v>15.3</v>
+      </c>
+      <c r="G17" s="19">
+        <v>55.2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I17" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K17" s="19">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>84.5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>80.2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>27.1</v>
+      </c>
+      <c r="G18" s="19">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="H18" s="19">
+        <v>78.7</v>
+      </c>
+      <c r="I18" s="19">
+        <v>23.7</v>
+      </c>
+      <c r="J18" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4366,14 +6126,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="E19" s="19">
+        <v>12.3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>15.7</v>
+      </c>
+      <c r="G19" s="19">
+        <v>15.1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="I19" s="19">
+        <v>14.2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>12.7</v>
+      </c>
+      <c r="K19" s="19">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4381,14 +6157,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="E20" s="19">
+        <v>11.4</v>
+      </c>
+      <c r="F20" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="G20" s="19">
+        <v>15</v>
+      </c>
+      <c r="H20" s="19">
+        <v>10.7</v>
+      </c>
+      <c r="I20" s="19">
+        <v>18</v>
+      </c>
+      <c r="J20" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="K20" s="19">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4576,7 +6368,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,28 +6446,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29">
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>10</v>
+      </c>
+      <c r="H6" s="29">
+        <v>4</v>
+      </c>
+      <c r="I6" s="29">
+        <v>7</v>
+      </c>
+      <c r="J6" s="29">
+        <v>3</v>
+      </c>
+      <c r="K6" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4685,14 +6509,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4700,14 +6540,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="29">
+        <v>6</v>
+      </c>
+      <c r="F8" s="29">
+        <v>7</v>
+      </c>
+      <c r="G8" s="29">
+        <v>6</v>
+      </c>
+      <c r="H8" s="29">
+        <v>6</v>
+      </c>
+      <c r="I8" s="29">
+        <v>8</v>
+      </c>
+      <c r="J8" s="29">
+        <v>3</v>
+      </c>
+      <c r="K8" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4719,28 +6575,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="29">
+        <v>8</v>
+      </c>
+      <c r="E10" s="29">
+        <v>5</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29">
+        <v>6</v>
+      </c>
+      <c r="I10" s="29">
+        <v>5</v>
+      </c>
+      <c r="J10" s="29">
+        <v>6</v>
+      </c>
+      <c r="K10" s="29">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4750,14 +6638,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="29">
+        <v>1</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4765,14 +6669,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="29">
+        <v>9</v>
+      </c>
+      <c r="F12" s="29">
+        <v>10</v>
+      </c>
+      <c r="G12" s="29">
+        <v>8</v>
+      </c>
+      <c r="H12" s="29">
+        <v>8</v>
+      </c>
+      <c r="I12" s="29">
+        <v>10</v>
+      </c>
+      <c r="J12" s="29">
+        <v>6</v>
+      </c>
+      <c r="K12" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4784,28 +6704,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="29">
+        <v>7</v>
+      </c>
+      <c r="E14" s="29">
+        <v>6</v>
+      </c>
+      <c r="F14" s="29">
+        <v>6</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9</v>
+      </c>
+      <c r="H14" s="29">
+        <v>7</v>
+      </c>
+      <c r="I14" s="29">
+        <v>10</v>
+      </c>
+      <c r="J14" s="29">
+        <v>5</v>
+      </c>
+      <c r="K14" s="29">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4815,14 +6767,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4830,14 +6798,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="29">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>4</v>
+      </c>
+      <c r="G16" s="29">
+        <v>7</v>
+      </c>
+      <c r="H16" s="29">
+        <v>4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>10</v>
+      </c>
+      <c r="J16" s="29">
+        <v>7</v>
+      </c>
+      <c r="K16" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4849,28 +6833,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>10</v>
+      </c>
+      <c r="F18" s="29">
+        <v>8</v>
+      </c>
+      <c r="G18" s="29">
+        <v>8</v>
+      </c>
+      <c r="H18" s="29">
+        <v>9</v>
+      </c>
+      <c r="I18" s="29">
+        <v>4</v>
+      </c>
+      <c r="J18" s="29">
+        <v>2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4880,14 +6896,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="29">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29">
+        <v>1</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4895,14 +6927,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="29">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
+        <v>8</v>
+      </c>
+      <c r="F20" s="29">
+        <v>9</v>
+      </c>
+      <c r="G20" s="29">
+        <v>10</v>
+      </c>
+      <c r="H20" s="29">
+        <v>3</v>
+      </c>
+      <c r="I20" s="29">
+        <v>3</v>
+      </c>
+      <c r="J20" s="29">
+        <v>5</v>
+      </c>
+      <c r="K20" s="29">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5090,7 +7138,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,28 +7216,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I6" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5199,14 +7279,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5214,14 +7310,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5233,28 +7345,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="J10" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="K10" s="19">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5264,14 +7408,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5279,14 +7439,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="F12" s="19">
+        <v>6</v>
+      </c>
+      <c r="G12" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="J12" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5298,28 +7474,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="19">
+        <v>6</v>
+      </c>
+      <c r="F14" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="H14" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="K14" s="19">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5329,14 +7537,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5344,14 +7568,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="G16" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="K16" s="19">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5363,28 +7603,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="E18" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="G18" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H18" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="J18" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K18" s="19">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5394,14 +7666,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5409,14 +7697,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="F20" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="G20" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="J20" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K20" s="19">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5604,7 +7908,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,15 +7916,19 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -5735,38 +8043,90 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="D5" s="50">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E5" s="37">
+        <v>8</v>
+      </c>
+      <c r="F5" s="38">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G5" s="38">
+        <v>512</v>
+      </c>
+      <c r="H5" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="I5" s="38">
+        <v>256</v>
+      </c>
+      <c r="J5" s="38">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="38">
+        <v>4</v>
+      </c>
+      <c r="M5" s="33">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N5" s="36">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O5" s="38">
+        <v>128</v>
+      </c>
+      <c r="P5" s="39">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="15"/>
+      <c r="D6" s="41">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="32">
+        <v>4</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G6" s="30">
+        <v>32</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="31">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="31">
+        <v>1</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O6" s="19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5776,19 +8136,45 @@
       <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="44"/>
+      <c r="D7" s="41">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8</v>
+      </c>
+      <c r="F7" s="19">
+        <v>2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>16</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1024</v>
+      </c>
+      <c r="J7" s="32">
+        <v>128</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="L7" s="29">
+        <v>8</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O7" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P7" s="44">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5796,19 +8182,45 @@
       <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="44"/>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>8</v>
+      </c>
+      <c r="F8" s="29">
+        <v>256</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1024</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="13">
+        <v>128</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="29">
+        <v>3</v>
+      </c>
+      <c r="L8" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="O8" s="19">
+        <v>8</v>
+      </c>
+      <c r="P8" s="44">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5820,38 +8232,90 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="43"/>
+      <c r="D9" s="40">
+        <v>256</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>16</v>
+      </c>
+      <c r="G9" s="31">
+        <v>64</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2</v>
+      </c>
+      <c r="J9" s="32">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="L9" s="29">
+        <v>32</v>
+      </c>
+      <c r="M9" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <v>2</v>
+      </c>
+      <c r="O9" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P9" s="43">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="44"/>
+      <c r="D10" s="40">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G10" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="31">
+        <v>4</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M10" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1</v>
+      </c>
+      <c r="P10" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5861,19 +8325,45 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="34"/>
+      <c r="D11" s="41">
+        <v>4</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29">
+        <v>8</v>
+      </c>
+      <c r="J11" s="29">
+        <v>64</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="29">
+        <v>4</v>
+      </c>
+      <c r="M11" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="P11" s="34">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5881,19 +8371,45 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="43"/>
+      <c r="D12" s="41">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="32">
+        <v>16</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="43">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5905,38 +8421,90 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="45"/>
+      <c r="D13" s="41">
+        <v>16</v>
+      </c>
+      <c r="E13" s="29">
+        <v>64</v>
+      </c>
+      <c r="F13" s="31">
+        <v>8</v>
+      </c>
+      <c r="G13" s="30">
+        <v>64</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>32</v>
+      </c>
+      <c r="J13" s="32">
+        <v>64</v>
+      </c>
+      <c r="K13" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L13" s="29">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
+        <v>4</v>
+      </c>
+      <c r="N13" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="45">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="15"/>
+      <c r="D14" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>8</v>
+      </c>
+      <c r="J14" s="32">
+        <v>4</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N14" s="30">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O14" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P14" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5946,19 +8514,45 @@
       <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="43"/>
+      <c r="D15" s="41">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>128</v>
+      </c>
+      <c r="F15" s="30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G15" s="29">
+        <v>16</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="29">
+        <v>4</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="L15" s="32">
+        <v>32</v>
+      </c>
+      <c r="M15" s="29">
+        <v>4</v>
+      </c>
+      <c r="N15" s="30">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="P15" s="43">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5966,19 +8560,45 @@
       <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="45"/>
+      <c r="D16" s="40">
+        <v>1024</v>
+      </c>
+      <c r="E16" s="29">
+        <v>64</v>
+      </c>
+      <c r="F16" s="29">
+        <v>512</v>
+      </c>
+      <c r="G16" s="19">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>3</v>
+      </c>
+      <c r="I16" s="29">
+        <v>256</v>
+      </c>
+      <c r="J16" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>8</v>
+      </c>
+      <c r="M16" s="32">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19">
+        <v>-4</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="P16" s="45">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5990,38 +8610,90 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="45"/>
+      <c r="D17" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>512</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2</v>
+      </c>
+      <c r="I17" s="29">
+        <v>4</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="29">
+        <v>2</v>
+      </c>
+      <c r="L17" s="29">
+        <v>256</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O17" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="15"/>
+      <c r="D18" s="40">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1024</v>
+      </c>
+      <c r="H18" s="29">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29">
+        <v>32</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="29">
+        <v>256</v>
+      </c>
+      <c r="M18" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="P18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6031,19 +8703,45 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="44"/>
+      <c r="D19" s="40">
+        <v>0.125</v>
+      </c>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="29">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2</v>
+      </c>
+      <c r="J19" s="31">
+        <v>8</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L19" s="29">
+        <v>128</v>
+      </c>
+      <c r="M19" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N19" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>8</v>
+      </c>
+      <c r="P19" s="44">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6051,19 +8749,45 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="51"/>
+      <c r="D20" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="35">
+        <v>2</v>
+      </c>
+      <c r="F20" s="49">
+        <v>8</v>
+      </c>
+      <c r="G20" s="47">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="48">
+        <v>2.8</v>
+      </c>
+      <c r="I20" s="35">
+        <v>1</v>
+      </c>
+      <c r="J20" s="35">
+        <v>8</v>
+      </c>
+      <c r="K20" s="48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L20" s="49">
+        <v>128</v>
+      </c>
+      <c r="M20" s="35">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N20" s="14">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O20" s="46">
+        <v>512</v>
+      </c>
+      <c r="P20" s="51">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6322,8 +9046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E093FD04-CF21-4625-BBAE-D18349CAAAA7}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,11 +9057,17 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -6466,44 +9196,108 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
+      <c r="D5" s="27">
+        <v>2</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-8</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="P5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="R5" s="28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J6" s="29">
+        <v>1</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L6" s="30">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N6" s="29">
+        <v>-256</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P6" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R6" s="29">
+        <v>3.125E-2</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6513,22 +9307,54 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
+      <c r="D7" s="29">
+        <v>4</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F7" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>8</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J7" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L7" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N7" s="29">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P7" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6536,22 +9362,54 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="D8" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="I8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P8" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R8" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6563,44 +9421,108 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="13"/>
+      <c r="D9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="13"/>
+      <c r="D10" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>1</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6610,22 +9532,54 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="13"/>
+      <c r="D11" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="O11" s="29">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6633,22 +9587,54 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="13"/>
+      <c r="D12" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6660,44 +9646,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="13"/>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="G13" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="H13" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J13" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K13" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="L13" s="19">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="M13" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N13" s="29">
+        <v>2</v>
+      </c>
+      <c r="O13" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="R13" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1.66015625E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="13"/>
+      <c r="D14" s="29">
+        <v>2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="M14" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="N14" s="29">
+        <v>4</v>
+      </c>
+      <c r="O14" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="P14" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="R14" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S14" s="29">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -6707,22 +9757,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="13"/>
+      <c r="D15" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F15" s="29">
+        <v>32</v>
+      </c>
+      <c r="G15" s="30">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="H15" s="30">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="J15" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K15" s="13">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="M15" s="29">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="N15" s="29">
+        <v>2</v>
+      </c>
+      <c r="O15" s="13">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="P15" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="R15" s="29">
+        <v>512</v>
+      </c>
+      <c r="S15" s="29">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6730,22 +9812,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="13"/>
+      <c r="D16" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E16" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="F16" s="29">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H16" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>64</v>
+      </c>
+      <c r="K16" s="29">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M16" s="29">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="N16" s="29">
+        <v>4</v>
+      </c>
+      <c r="O16" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="P16" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>0.2509765625</v>
+      </c>
+      <c r="R16" s="29">
+        <v>128</v>
+      </c>
+      <c r="S16" s="29">
+        <v>64.0009765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6757,44 +9871,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="D17" s="29">
+        <v>4</v>
+      </c>
+      <c r="E17" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="F17" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G17" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="H17" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1.0009765625</v>
+      </c>
+      <c r="N17" s="13">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>-2.9296875E-3</v>
+      </c>
+      <c r="P17" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="R17" s="29">
+        <v>256</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="29"/>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="H18" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I18" s="29">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J18" s="29">
+        <v>16</v>
+      </c>
+      <c r="K18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="N18" s="29">
+        <v>-128</v>
+      </c>
+      <c r="O18" s="29">
+        <v>-31.9990234375</v>
+      </c>
+      <c r="P18" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>0.2509765625</v>
+      </c>
+      <c r="R18" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S18" s="29">
+        <v>1.66015625E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6804,22 +9982,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="13"/>
+      <c r="D19" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G19" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I19" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L19" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0.1259765625</v>
+      </c>
+      <c r="N19" s="29">
+        <v>-32</v>
+      </c>
+      <c r="O19" s="13">
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="P19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="R19" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S19" s="29">
+        <v>256.0009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6827,22 +10037,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="13"/>
+      <c r="D20" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="19">
+        <v>4.0009765625</v>
+      </c>
+      <c r="H20" s="29">
+        <v>8</v>
+      </c>
+      <c r="I20" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L20" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="M20" s="13">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="N20" s="29">
+        <v>-256</v>
+      </c>
+      <c r="O20" s="13">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0.5009765625</v>
+      </c>
+      <c r="R20" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="S20" s="13">
+        <v>3.22265625E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
